--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1606375.601611361</v>
+        <v>1662457.600164886</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17281035.0892639</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248443</v>
+        <v>492028.9342484438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6335859.682678035</v>
+        <v>6346937.31152447</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>147.6010696135029</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>295.324669126352</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>101.9329391387541</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>156.7366837747043</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>92.79092271234252</v>
       </c>
       <c r="C5" t="n">
-        <v>322.6492950626189</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.24328063844044</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>324.6802093802394</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.56453789817022</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>2.365802527426544</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,10 +1300,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074793</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7957673084574</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093118</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>348.0223489661773</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>215.6111223864581</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1777,10 +1777,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>158.7868437042802</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.01098805494587</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>33.08339867820416</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>133.9425292830651</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615981</v>
       </c>
       <c r="W22" t="n">
-        <v>129.7139627068455</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>14.1441627534539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>119.9348501475803</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>109.4519776932673</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>249.4112747763485</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907156</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.01514676193533</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.7469331998934</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>22.56919457453956</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>148.6041873872575</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>219.7703493858191</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3740,10 +3740,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>384.0290916886128</v>
       </c>
       <c r="D41" t="n">
-        <v>431.550686977299</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3904,19 +3904,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>32.6968126252648</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>101.455696833728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.08339867820433</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4138,16 +4138,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626849</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.01098805494584</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>548.3728793740404</v>
+        <v>686.4736493570689</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>248.3311765404922</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>99.2391870319034</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>69.50484623060264</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021443</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021443</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>45.67782068021443</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021443</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331323</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050786</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050786</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050786</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1046.195539050786</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1046.195539050786</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1611.458569968439</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2157.957355927034</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010721</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194558</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2200.239160194558</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1941.016857511575</v>
       </c>
       <c r="V2" t="n">
-        <v>1398.875683488143</v>
+        <v>1941.016857511575</v>
       </c>
       <c r="W2" t="n">
-        <v>1398.06063293958</v>
+        <v>1940.201806963013</v>
       </c>
       <c r="X2" t="n">
-        <v>978.9181695188907</v>
+        <v>1521.059343542323</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.6724498589482</v>
+        <v>1112.773219841977</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715072</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081495</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547028</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816565</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978181</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400196</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021443</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067202</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>396.2998188068844</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>485.7428345149546</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>485.7428345149546</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>485.7428345149546</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064684</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999976</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331697</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720496</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>821.8109954909876</v>
+        <v>775.4672157370769</v>
       </c>
       <c r="C4" t="n">
-        <v>649.2492839742125</v>
+        <v>775.4672157370769</v>
       </c>
       <c r="D4" t="n">
-        <v>483.3712911757352</v>
+        <v>609.5892229385996</v>
       </c>
       <c r="E4" t="n">
-        <v>313.6132874264725</v>
+        <v>439.8312191893369</v>
       </c>
       <c r="F4" t="n">
-        <v>136.9062333882287</v>
+        <v>439.8312191893369</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>274.2399442151645</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>134.3377699055391</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021443</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>132.2575058449043</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>407.0159604160399</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>825.225842184001</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1284.709709364914</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1516.714890814598</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1936.38414004038</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010721</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010721</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2262.473212716093</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2104.153330115382</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1858.273883693837</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1579.840882946942</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1292.885374817373</v>
       </c>
       <c r="W4" t="n">
-        <v>1013.629614209975</v>
+        <v>1020.858970403664</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.629614209975</v>
+        <v>775.4672157370769</v>
       </c>
       <c r="Y4" t="n">
-        <v>1013.629614209975</v>
+        <v>775.4672157370769</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C5" t="n">
-        <v>924.8126511555888</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D5" t="n">
-        <v>892.9432703704374</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>972.5535525019498</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5271480882413</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>455.1353934216538</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.3239988373705</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.2516073614568</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>120.1495385852841</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>88.28015780013273</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>58.54581699883197</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>34.71879144844376</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>34.71879144844376</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.71879144844376</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>34.71879144844376</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>464.3638356229353</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>707.4954193201484</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>707.4954193201484</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>707.4954193201484</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>707.4954193201484</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>707.4954193201484</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1137.14046349464</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1566.785507669131</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1735.939572422188</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1735.939572422188</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1735.939572422188</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1735.939572422188</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1735.939572422188</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1407.979764967401</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>988.8373015467112</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>580.5511778463646</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.8905364397366</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>434.4340752763788</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>339.3437864229321</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>245.2233717498858</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.8395333660474</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>76.45444363223129</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>34.71879144844376</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.78246460890136</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>385.3407895751137</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>814.9858337496051</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1151.140730658421</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1151.140730658421</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1151.140730658421</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1151.140730658421</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1151.140730658421</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.785774832913</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.958552927253</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1634.503115375636</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1504.324471706237</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.987924706206</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.870406768205</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>943.5476525013989</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>788.680216740279</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>662.1944375194997</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.7444875188369</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>370.3547879961839</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>204.4767951977065</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>34.71879144844376</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>34.71879144844376</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>34.71879144844376</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>34.71879144844376</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>34.71879144844376</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>34.71879144844376</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>34.71879144844376</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.9286732164048</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>882.5737173908964</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1312.218761565388</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1731.888010791169</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1735.939572422188</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1735.939572422188</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1714.52175112756</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1555.280382425557</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1309.400936004012</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1309.400936004012</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1309.400936004012</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.374531590303</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>791.9827769237158</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.5631062378241</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687548</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811152</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
         <v>183.3156618458051</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.88846224322</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829512</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162924</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874953</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.7359766811152</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302704</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112636</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884174</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874518</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,19 +5349,19 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>870.3006880091988</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>697.7389764924237</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>531.8609836939464</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>362.1029799446837</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
         <v>183.3156618458051</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
         <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2372.345645370838</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418844</v>
+        <v>2093.912644623943</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1806.957136494374</v>
       </c>
       <c r="W16" t="n">
-        <v>1449.442036875566</v>
+        <v>1534.930732080665</v>
       </c>
       <c r="X16" t="n">
-        <v>1449.442036875566</v>
+        <v>1289.538977414078</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1062.119306728186</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047133</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205428</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146356</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378995</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>96.7359766811152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4803.381259633332</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4803.381259633332</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1056.838397217808</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C19" t="n">
-        <v>884.2766857010329</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D19" t="n">
-        <v>718.3986929025556</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E19" t="n">
-        <v>548.6406891532929</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F19" t="n">
-        <v>371.9336351150491</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W19" t="n">
-        <v>1721.468441289274</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1476.076686622687</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1248.657015936795</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5920,40 +5920,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2259.828259430056</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954128</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769889</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785116</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292488</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>282.1391483292488</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550765</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>116.5478733550765</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="26">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903956</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736205</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957674</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405614</v>
+        <v>777.0165135789923</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420841</v>
+        <v>611.138520780515</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928213</v>
+        <v>441.3805170312523</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2281.246080724682</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376324</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>875.8255515988629</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
-        <v>703.2638400820879</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>537.3858472836107</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>367.6278435343479</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>190.9207894961041</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961041</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2623.749955382047</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2377.870508960502</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2099.437508213608</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1812.482000084038</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1540.455595670329</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1295.063841003742</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.64417031785</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,10 +6923,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6968,16 +6968,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957677</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789927</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>777.0165135789925</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>607.2585098297299</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>430.5514557914861</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>264.9601808173138</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>125.0580065076883</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1886.234673580943</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1368.816514500647</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.575145798643</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>982.1554751127505</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>982.1554751127507</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>816.2774823142734</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>646.5194785650107</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651788</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835211</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136695</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937646</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769895</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D43" t="n">
-        <v>451.8971520785124</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E43" t="n">
-        <v>451.8971520785124</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F43" t="n">
-        <v>275.1900980402685</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G43" t="n">
-        <v>275.1900980402685</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H43" t="n">
-        <v>135.2879237306431</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878939</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.966900465231</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798643</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127517</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>1898.166269168154</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1462.256484342599</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1028.481739500894</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>600.6143099101018</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>199.2164785333657</v>
       </c>
       <c r="H44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7655,43 +7655,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.381259633332</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633332</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>3994.892354179642</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P45" t="n">
         <v>1102.064021433509</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>612.2502812873241</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777444</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284817</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902379</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160656</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064401</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J46" t="n">
         <v>183.3156618458051</v>
@@ -7828,7 +7828,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S46" t="n">
         <v>2532.736396587283</v>
@@ -7837,19 +7837,19 @@
         <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2008.423949418844</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V46" t="n">
         <v>1721.468441289274</v>
       </c>
       <c r="W46" t="n">
-        <v>1449.442036875566</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X46" t="n">
-        <v>1449.442036875566</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>127.2057354380681</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,13 +8058,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>90.34648051320227</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>234.3486681309942</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>433.984893105547</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>245.5874582800133</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>433.9848931055469</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.9848931055469</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.9848931055469</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>339.5504009179963</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055469</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>433.984893105547</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055469</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>4.092486495978619</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>712.7331429833484</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10124,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>267.5985112554894</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0111327346197</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>208.2197249473427</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>10.96843159933445</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>185.1957776566189</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.6338082530491</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.7319563997972</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>29.99283294136552</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.6516710866758</v>
       </c>
       <c r="W22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>73.62918697961751</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>44.28436272291226</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.48800580459405</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>34.67467827192534</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>84.63380825304797</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.15349933190384</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>65.20415515853185</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>26.33579611060386</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>55.87832135360659</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>49.7319563997981</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>55.07653710780662</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>184.7831561774879</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.73195639979703</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55.07653710780765</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.134485924087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>555683.14948302</v>
+        <v>557187.3729580663</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>555683.14948302</v>
+        <v>558177.4498945534</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>555782.5139683653</v>
+        <v>558177.4498945534</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531056.6974404481</v>
+        <v>531056.697440448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531056.6974404481</v>
+        <v>531056.697440448</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>531056.697440448</v>
+        <v>553467.8969204961</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>553467.8969204961</v>
+        <v>553467.8969204962</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>553467.896920496</v>
+        <v>553467.8969204961</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553467.8969204962</v>
+        <v>553467.8969204961</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>553467.8969204961</v>
+        <v>531056.6974404479</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531056.697440448</v>
+        <v>531056.6974404479</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294656</v>
+        <v>366504.8260294655</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294656</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="G2" t="n">
-        <v>366504.8260294654</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="J2" t="n">
         <v>381971.7484995804</v>
@@ -26344,16 +26344,16 @@
         <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>381971.7484995803</v>
+        <v>366504.8260294654</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294655</v>
+        <v>366504.8260294654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476937</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745881</v>
       </c>
       <c r="D3" t="n">
-        <v>3009.705123906045</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>231462.0891550072</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18928.52796216466</v>
       </c>
       <c r="H3" t="n">
-        <v>18633.22400329703</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256753</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.9367839331</v>
       </c>
       <c r="L3" t="n">
-        <v>2452.207705355261</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193186.6328590331</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>143235.6821366785</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>173182.1514764071</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26430,10 +26430,10 @@
         <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13668.38414064833</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049269</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,13 +26448,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049268</v>
       </c>
       <c r="N4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049264</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="P4" t="n">
         <v>13668.38414064833</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696296</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>60013.88150081725</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
@@ -26506,10 +26506,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11790.47825850284</v>
+        <v>-14217.72268078904</v>
       </c>
       <c r="C6" t="n">
-        <v>153981.7789182129</v>
+        <v>161173.3941961944</v>
       </c>
       <c r="D6" t="n">
-        <v>152501.0688194158</v>
+        <v>192363.4291336532</v>
       </c>
       <c r="E6" t="n">
-        <v>47855.0104561625</v>
+        <v>117505.4658462583</v>
       </c>
       <c r="F6" t="n">
-        <v>279317.0996111697</v>
+        <v>279240.5410563727</v>
       </c>
       <c r="G6" t="n">
-        <v>279317.0996111695</v>
+        <v>271056.5520217479</v>
       </c>
       <c r="H6" t="n">
-        <v>271375.0803199982</v>
+        <v>289985.0799839125</v>
       </c>
       <c r="I6" t="n">
-        <v>290008.3043232952</v>
+        <v>289985.0799839126</v>
       </c>
       <c r="J6" t="n">
-        <v>178993.8389783051</v>
+        <v>140593.4835582373</v>
       </c>
       <c r="K6" t="n">
-        <v>290008.3043232952</v>
+        <v>265138.1431999795</v>
       </c>
       <c r="L6" t="n">
-        <v>287556.0966179399</v>
+        <v>289985.0799839126</v>
       </c>
       <c r="M6" t="n">
-        <v>96821.67146426206</v>
+        <v>154995.1353709091</v>
       </c>
       <c r="N6" t="n">
-        <v>290008.3043232951</v>
+        <v>289985.0799839125</v>
       </c>
       <c r="O6" t="n">
-        <v>290008.3043232951</v>
+        <v>279240.5410563726</v>
       </c>
       <c r="P6" t="n">
-        <v>279317.0996111696</v>
+        <v>279240.5410563726</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>433.984893105547</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517662</v>
       </c>
       <c r="D4" t="n">
-        <v>9.689035585442632</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>775.2148154083931</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="H4" t="n">
-        <v>69.06079487080501</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517662</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585442632</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083928</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517662</v>
       </c>
       <c r="L4" t="n">
-        <v>9.689035585442632</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083931</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="P4" t="n">
-        <v>69.06079487080501</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>283.949617363797</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>63.66611143915975</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>62.00242308567648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.9122712402789546</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>329.2456520677162</v>
       </c>
       <c r="C5" t="n">
-        <v>111.111753025792</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>168.9021933405924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>76.12669066283758</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.4702918741808</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.637978807091713e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>127.2057354380681</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,19 +34772,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>90.34648051320227</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>570.9727585026803</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>234.3486681309942</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>433.984893105547</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>245.5874582800133</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>433.9848931055469</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.9848931055469</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.9848931055469</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>339.5504009179963</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055469</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>433.984893105547</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055469</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>4.092486495978619</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>712.7331429833484</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,25 +35650,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807368</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36288,7 +36288,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956042</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36841,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-6.084382722536545e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,7 +38023,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807368</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
